--- a/code/main/model_output/apollo/0_battery_model_combine_output.xlsx
+++ b/code/main/model_output/apollo/0_battery_model_combine_output.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/apollo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32714E8-6663-764E-AB77-6BAAC700C6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF585C-81F0-1A4F-AA89-A99B4EB4F7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="680" windowWidth="30240" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coef_fit" sheetId="1" r:id="rId1"/>
-    <sheet name="WTP_interpretation (price)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
-    <sheet name="Factor_analysis" sheetId="3" r:id="rId4"/>
+    <sheet name="WTP_interpretation" sheetId="2" r:id="rId2"/>
+    <sheet name="Factor_analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="184">
   <si>
     <t>variables/fit_indices</t>
   </si>
@@ -453,24 +452,6 @@
   </si>
   <si>
     <t>Class_3</t>
-  </si>
-  <si>
-    <t>ATT_EVB_environment</t>
-  </si>
-  <si>
-    <t>ATT_EVB_function</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>Showing 1 to 3 of 3 entries, 6 total columns</t>
   </si>
   <si>
     <t>Class Characteristics</t>
@@ -673,9 +654,9 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -695,25 +676,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -808,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -824,81 +786,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1286,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1297,8 +1255,8 @@
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="3" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="8.83203125" style="10"/>
-    <col min="12" max="16" width="8.83203125" style="11"/>
+    <col min="11" max="11" width="8.83203125" style="7"/>
+    <col min="12" max="16" width="8.83203125" style="8"/>
     <col min="23" max="23" width="18.33203125" customWidth="1"/>
     <col min="24" max="26" width="8.83203125" style="2"/>
     <col min="28" max="28" width="13.6640625" customWidth="1"/>
@@ -1336,22 +1294,22 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1484,13 +1442,13 @@
         <v>79</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -1510,13 +1468,13 @@
         <v>79</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -1535,16 +1493,16 @@
       <c r="J9" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="8">
         <v>-1.45</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="8">
         <v>0.75</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="8" t="s">
         <v>91</v>
       </c>
       <c r="Q9">
@@ -1588,16 +1546,16 @@
       <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <v>-0.23799999999999999</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="8">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="8" t="s">
         <v>92</v>
       </c>
       <c r="Q10">
@@ -1641,16 +1599,16 @@
       <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="8">
         <v>0.499</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="8">
         <v>0.183</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="Q11">
@@ -1694,16 +1652,16 @@
       <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <v>-0.29599999999999999</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q12">
@@ -1747,16 +1705,16 @@
       <c r="J13" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="8">
         <v>-1.2030000000000001</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="8">
         <v>0.31</v>
       </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11" t="s">
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q13">
@@ -1800,16 +1758,16 @@
       <c r="J14" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>-1.24</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="8">
         <v>0.26700000000000002</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11" t="s">
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q14">
@@ -1853,16 +1811,16 @@
       <c r="J15" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <v>-0.48099999999999998</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="8">
         <v>0.13700000000000001</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11" t="s">
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q15">
@@ -1878,7 +1836,7 @@
         <v>102</v>
       </c>
       <c r="W15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="X15" s="1">
         <v>-3.1661548503363299</v>
@@ -1906,16 +1864,16 @@
       <c r="J16" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="8">
         <v>-8.0259999999999998</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="8">
         <v>1.1160000000000001</v>
       </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11" t="s">
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q16">
@@ -1959,16 +1917,16 @@
       <c r="J17" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="8">
         <v>-0.34499999999999997</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="8">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11" t="s">
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q17">
@@ -2012,16 +1970,16 @@
       <c r="J18" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="8">
         <v>0.02</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="8">
         <v>0.13100000000000001</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="8">
         <v>0.88200000000000001</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q18">
@@ -2065,16 +2023,16 @@
       <c r="J19" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="8" t="s">
         <v>102</v>
       </c>
       <c r="Q19">
@@ -2118,16 +2076,16 @@
       <c r="J20" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="8">
         <v>-0.251</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="8">
         <v>0.16400000000000001</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="8">
         <v>0.125</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q20">
@@ -2171,16 +2129,16 @@
       <c r="J21" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <v>-0.38800000000000001</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="8">
         <v>0.17299999999999999</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="8" t="s">
         <v>102</v>
       </c>
       <c r="Q21">
@@ -2224,16 +2182,16 @@
       <c r="J22" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <v>-0.67100000000000004</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="8">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="8">
         <v>1E-3</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q22">
@@ -2249,7 +2207,7 @@
         <v>92</v>
       </c>
       <c r="W22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="X22" s="1">
         <v>-3.0942003202427699</v>
@@ -2265,16 +2223,16 @@
       <c r="A23" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <v>-4.4470000000000001</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="8">
         <v>1.145</v>
       </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11" t="s">
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q23">
@@ -2306,16 +2264,16 @@
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="8">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="8">
         <v>0.80200000000000005</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q24">
@@ -2347,16 +2305,16 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="8">
         <v>0.997</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="8">
         <v>0.19600000000000001</v>
       </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11" t="s">
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q25">
@@ -2388,16 +2346,16 @@
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <v>-0.53700000000000003</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="11" t="s">
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q26">
@@ -2429,16 +2387,16 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="8">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="8">
         <v>0.17299999999999999</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="8">
         <v>0.55500000000000005</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q27">
@@ -2470,16 +2428,16 @@
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="8">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="8">
         <v>0.16500000000000001</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="8">
         <v>0.29299999999999998</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q28">
@@ -2511,16 +2469,16 @@
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="8">
         <v>-0.84899999999999998</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="8">
         <v>0.20100000000000001</v>
       </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="11" t="s">
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q29">
@@ -2536,7 +2494,7 @@
         <v>93</v>
       </c>
       <c r="W29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="X29" s="1">
         <v>-0.850212582576645</v>
@@ -2698,10 +2656,10 @@
       <c r="J37" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="11">
-        <v>0</v>
-      </c>
-      <c r="O37" s="11" t="s">
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q37">
@@ -2727,10 +2685,10 @@
       <c r="J38" t="s">
         <v>93</v>
       </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="O38" s="11" t="s">
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q38">
@@ -2746,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -2762,10 +2720,10 @@
       <c r="J39" t="s">
         <v>93</v>
       </c>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="O39" s="11" t="s">
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q39">
@@ -2781,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -2797,10 +2755,10 @@
       <c r="J40" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="O40" s="11" t="s">
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q40">
@@ -2816,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -2838,16 +2796,16 @@
       <c r="J41" t="s">
         <v>93</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="8">
         <v>-0.67800000000000005</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="8">
         <v>0.46899999999999997</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="8">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q41">
@@ -2869,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -2891,16 +2849,16 @@
       <c r="J42" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="8">
         <v>0.48599999999999999</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="8">
         <v>0.16800000000000001</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="8" t="s">
         <v>92</v>
       </c>
       <c r="Q42">
@@ -2944,16 +2902,16 @@
       <c r="J43" t="s">
         <v>93</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="8">
         <v>0.249</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="8">
         <v>0.222</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="8">
         <v>0.26200000000000001</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q43">
@@ -2997,16 +2955,16 @@
       <c r="J44" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="8">
         <v>-0.48</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="8">
         <v>0.154</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="8">
         <v>2E-3</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="8" t="s">
         <v>92</v>
       </c>
       <c r="Q44">
@@ -3038,16 +2996,16 @@
       <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="8">
         <v>-0.39600000000000002</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="8">
         <v>0.46600000000000003</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="8">
         <v>0.39500000000000002</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q45">
@@ -3079,16 +3037,16 @@
       <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="8">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="8">
         <v>0.16900000000000001</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="8" t="s">
         <v>92</v>
       </c>
       <c r="Q46">
@@ -3120,16 +3078,16 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="8">
         <v>0.222</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="8">
         <v>0.191</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q47">
@@ -3161,16 +3119,16 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="8">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="8">
         <v>0.155</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="8">
         <v>0.17399999999999999</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="8" t="s">
         <v>93</v>
       </c>
       <c r="Q48">
@@ -3282,10 +3240,10 @@
       <c r="F55" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="8" t="s">
         <v>80</v>
       </c>
       <c r="U55" t="s">
@@ -3302,10 +3260,10 @@
       <c r="F56" t="s">
         <v>81</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="8" t="s">
         <v>81</v>
       </c>
       <c r="U56" t="s">
@@ -3322,10 +3280,10 @@
       <c r="F57" t="s">
         <v>82</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="8" t="s">
         <v>103</v>
       </c>
       <c r="U57" t="s">
@@ -3342,10 +3300,10 @@
       <c r="F58" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="8" t="s">
         <v>82</v>
       </c>
       <c r="U58" t="s">
@@ -3362,10 +3320,10 @@
       <c r="F59" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="8" t="s">
         <v>83</v>
       </c>
       <c r="U59" t="s">
@@ -3382,10 +3340,10 @@
       <c r="F60" t="s">
         <v>84</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="8" t="s">
         <v>104</v>
       </c>
       <c r="U60" t="s">
@@ -3402,10 +3360,10 @@
       <c r="F61" t="s">
         <v>85</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="8" t="s">
         <v>105</v>
       </c>
       <c r="U61" t="s">
@@ -3422,10 +3380,10 @@
       <c r="F62" t="s">
         <v>86</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="8" t="s">
         <v>106</v>
       </c>
       <c r="U62" t="s">
@@ -3442,10 +3400,10 @@
       <c r="F63" t="s">
         <v>87</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="8" t="s">
         <v>107</v>
       </c>
       <c r="U63" t="s">
@@ -3462,10 +3420,10 @@
       <c r="F64" t="s">
         <v>88</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="8" t="s">
         <v>108</v>
       </c>
       <c r="U64" t="s">
@@ -3482,16 +3440,16 @@
       <c r="F65" t="s">
         <v>89</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P65" s="12" t="s">
+      <c r="P65" s="9" t="s">
         <v>109</v>
       </c>
       <c r="U65" t="s">
         <v>117</v>
       </c>
-      <c r="AA65" s="22">
+      <c r="AA65" s="17">
         <v>4901.08</v>
       </c>
     </row>
@@ -3502,27 +3460,27 @@
       <c r="F66" t="s">
         <v>90</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P66" s="12" t="s">
+      <c r="P66" s="9" t="s">
         <v>110</v>
       </c>
       <c r="U66" t="s">
         <v>118</v>
       </c>
-      <c r="AA66" s="22">
+      <c r="AA66" s="17">
         <v>5066.7700000000004</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AC75" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AC76" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3534,152 +3492,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149F63B9-04C8-E04C-B2AF-072FD74F86EE}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="29"/>
-    <col min="3" max="3" width="9.1640625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8" style="29" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="29"/>
-    <col min="9" max="9" width="12.6640625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="29"/>
-    <col min="11" max="11" width="4" style="29" customWidth="1"/>
-    <col min="12" max="14" width="13" style="29" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="29" customWidth="1"/>
-    <col min="16" max="17" width="14" style="30" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" style="29" customWidth="1"/>
-    <col min="19" max="19" width="42.1640625" style="29" customWidth="1"/>
-    <col min="20" max="20" width="90.83203125" style="29" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="2" width="10.83203125" style="24"/>
+    <col min="3" max="3" width="9.1640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="8" style="24" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="24"/>
+    <col min="9" max="9" width="12.6640625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="24"/>
+    <col min="11" max="11" width="4" style="24" customWidth="1"/>
+    <col min="12" max="14" width="13" style="24" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="24" customWidth="1"/>
+    <col min="16" max="17" width="14" style="25" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="42.1640625" style="24" customWidth="1"/>
+    <col min="20" max="20" width="90.83203125" style="24" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="17" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="P1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="P1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="33"/>
+      <c r="S1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="18" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="23" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="L3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="M3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>161</v>
+      <c r="P3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -3731,8 +3689,8 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>179</v>
+      <c r="A6" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>136</v>
@@ -3740,243 +3698,243 @@
       <c r="C6" s="4">
         <v>0.44019999999999998</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <f>C6*372</f>
         <v>163.7544</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <v>-5.2396580000000004</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>-2.0374949999999999E-2</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="25">
         <v>1.1751048399999999</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="25">
         <v>-0.63276858000000002</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="25">
         <v>-0.12012249999999999</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="25">
         <v>-0.20386099999999999</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="30">
+      <c r="L6" s="25">
         <v>0.28438279999999999</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="25">
         <v>-5.5374939999999996E-3</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="25">
         <v>2.9583330000000001</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="26">
         <v>3.5628739999999999</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="26">
         <v>3.1017960000000002</v>
       </c>
-      <c r="S6" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>169</v>
+      <c r="S6" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="4">
         <v>0.34549999999999997</v>
       </c>
-      <c r="D7" s="21">
-        <f t="shared" ref="D7:D10" si="0">C7*372</f>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:D8" si="0">C7*372</f>
         <v>128.52599999999998</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>-11.960948999999999</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>-0.51352998999999999</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="27">
         <v>2.9108680000000001E-2</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="25">
         <v>-7.817404E-2</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="27">
         <v>-0.37394050000000001</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="25">
         <v>-0.57822169999999995</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>0.1916882</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="25">
         <v>-0.45784888699999998</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="25">
         <v>2.889764</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="26">
         <v>3.5118109999999998</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="26">
         <v>2.9842520000000001</v>
       </c>
-      <c r="S7" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>167</v>
+      <c r="S7" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="4">
         <v>0.21440000000000001</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>79.756799999999998</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>-3.0156710000000002</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="27">
         <v>-0.49434567000000001</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="25">
         <v>1.0371760299999999</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="25">
         <v>-0.61609676000000002</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="27">
         <v>-2.5005600000000001</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="27">
         <v>-2.577448</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="30">
+      <c r="L8" s="25">
         <v>-0.38356509999999999</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="25">
         <v>0.438129396</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="25">
         <v>1.948718</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="26">
         <v>3.0769229999999999</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="26">
         <v>3.4871789999999998</v>
       </c>
-      <c r="S8" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>168</v>
+      <c r="S8" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="28">
         <v>0.4239</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <f t="shared" ref="D13:D15" si="1">C13*372</f>
         <v>157.6908</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="28">
         <v>0.34660000000000002</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <f t="shared" si="1"/>
         <v>128.93520000000001</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="28">
         <v>0.22950000000000001</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="16">
         <f t="shared" si="1"/>
         <v>85.374000000000009</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="17"/>
+      <c r="A16" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>182</v>
+      <c r="A17" s="23" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>183</v>
+      <c r="A18" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D20" s="35" t="s">
-        <v>184</v>
+      <c r="D20" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="L20" s="3">
         <v>0.26943739999999999</v>
@@ -4004,13 +3962,13 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D22" s="36">
+      <c r="D22" s="29">
         <v>1.5</v>
       </c>
       <c r="E22" s="3">
         <v>-2.5229200000000001</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="31">
         <v>5.4245450000000002E-3</v>
       </c>
       <c r="G22" s="3">
@@ -4019,10 +3977,10 @@
       <c r="H22" s="3">
         <v>-0.2593317</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="31">
         <v>-5.3207049999999999E-2</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="31">
         <v>-8.8383050000000005E-2</v>
       </c>
       <c r="L22" s="3"/>
@@ -4033,13 +3991,13 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D23" s="36">
+      <c r="D23" s="29">
         <v>2.5</v>
       </c>
       <c r="E23" s="3">
         <v>-4.2048670000000001</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="31">
         <v>9.0409089999999998E-3</v>
       </c>
       <c r="G23" s="3">
@@ -4048,13 +4006,13 @@
       <c r="H23" s="3">
         <v>-0.43221949999999998</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="31">
         <v>-8.8678419999999994E-2</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="31">
         <v>-0.14730509</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -4063,13 +4021,13 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D24" s="37">
+      <c r="D24" s="30">
         <v>3.5</v>
       </c>
       <c r="E24" s="3">
         <v>-5.8868140000000002</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="31">
         <v>1.2657272000000001E-2</v>
       </c>
       <c r="G24" s="3">
@@ -4078,13 +4036,13 @@
       <c r="H24" s="3">
         <v>-0.60510719999999996</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="31">
         <v>-0.12414979</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="31">
         <v>-0.20622712000000001</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -4093,13 +4051,13 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D25" s="37">
+      <c r="D25" s="30">
         <v>4.5</v>
       </c>
       <c r="E25" s="3">
         <v>-7.5687610000000003</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="31">
         <v>1.6273636000000001E-2</v>
       </c>
       <c r="G25" s="3">
@@ -4108,10 +4066,10 @@
       <c r="H25" s="3">
         <v>-0.77799499999999999</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="31">
         <v>-0.15962116000000001</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="31">
         <v>-0.26514915999999999</v>
       </c>
       <c r="L25" s="3"/>
@@ -4122,13 +4080,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D26" s="37">
+      <c r="D26" s="30">
         <v>5.5</v>
       </c>
       <c r="E26" s="3">
         <v>-9.2507079999999995</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="31">
         <v>1.9890000000000001E-2</v>
       </c>
       <c r="G26" s="3">
@@ -4137,10 +4095,10 @@
       <c r="H26" s="3">
         <v>-0.95088280000000003</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="31">
         <v>-0.19509252999999999</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="31">
         <v>-0.32407119000000001</v>
       </c>
       <c r="L26" s="3"/>
@@ -4151,13 +4109,13 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D27" s="37">
+      <c r="D27" s="30">
         <v>6.5</v>
       </c>
       <c r="E27" s="3">
         <v>-10.932653999999999</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="31">
         <v>2.3506362999999999E-2</v>
       </c>
       <c r="G27" s="3">
@@ -4166,10 +4124,10 @@
       <c r="H27" s="3">
         <v>-1.1237706000000001</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="31">
         <v>-0.23056389999999999</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="31">
         <v>-0.38299323000000002</v>
       </c>
       <c r="L27" s="3"/>
@@ -4180,7 +4138,7 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D28" s="37"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4195,8 +4153,8 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D29" s="35" t="s">
-        <v>185</v>
+      <c r="D29" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4222,7 +4180,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D30" s="37"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -4237,7 +4195,7 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D31" s="37">
+      <c r="D31" s="30">
         <v>1.5</v>
       </c>
       <c r="E31" s="3">
@@ -4246,13 +4204,13 @@
       <c r="F31" s="3">
         <v>-0.1724976</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="31">
         <v>1.458125E-2</v>
       </c>
       <c r="H31" s="3">
         <v>-2.6324340000000002E-2</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="31">
         <v>-0.1204315</v>
       </c>
       <c r="J31" s="3">
@@ -4266,7 +4224,7 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D32" s="37">
+      <c r="D32" s="30">
         <v>2.5</v>
       </c>
       <c r="E32" s="3">
@@ -4275,13 +4233,13 @@
       <c r="F32" s="3">
         <v>-0.28749599999999997</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="31">
         <v>2.430208E-2</v>
       </c>
       <c r="H32" s="3">
         <v>-4.3873889999999999E-2</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="31">
         <v>-0.20071919999999999</v>
       </c>
       <c r="J32" s="3">
@@ -4295,7 +4253,7 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D33" s="37">
+      <c r="D33" s="30">
         <v>3.5</v>
       </c>
       <c r="E33" s="3">
@@ -4304,13 +4262,13 @@
       <c r="F33" s="3">
         <v>-0.40249439999999997</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="31">
         <v>3.4022910000000003E-2</v>
       </c>
       <c r="H33" s="3">
         <v>-6.1423449999999997E-2</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="31">
         <v>-0.2810069</v>
       </c>
       <c r="J33" s="3">
@@ -4324,7 +4282,7 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D34" s="37">
+      <c r="D34" s="30">
         <v>4.5</v>
       </c>
       <c r="E34" s="3">
@@ -4333,13 +4291,13 @@
       <c r="F34" s="3">
         <v>-0.51749279999999998</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="31">
         <v>4.3743749999999998E-2</v>
       </c>
       <c r="H34" s="3">
         <v>-7.8973009999999996E-2</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="31">
         <v>-0.36129460000000002</v>
       </c>
       <c r="J34" s="3">
@@ -4353,7 +4311,7 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D35" s="37">
+      <c r="D35" s="30">
         <v>5.5</v>
       </c>
       <c r="E35" s="3">
@@ -4362,13 +4320,13 @@
       <c r="F35" s="3">
         <v>-0.63249120000000003</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="31">
         <v>5.3464579999999998E-2</v>
       </c>
       <c r="H35" s="3">
         <v>-9.6522570000000002E-2</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="31">
         <v>-0.44158229999999998</v>
       </c>
       <c r="J35" s="3">
@@ -4382,7 +4340,7 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D36" s="37">
+      <c r="D36" s="30">
         <v>6.5</v>
       </c>
       <c r="E36" s="3">
@@ -4391,13 +4349,13 @@
       <c r="F36" s="3">
         <v>-0.74748959999999998</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="31">
         <v>6.3185409999999997E-2</v>
       </c>
       <c r="H36" s="3">
         <v>-0.11407212</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="31">
         <v>-0.52186999999999995</v>
       </c>
       <c r="J36" s="3">
@@ -4411,7 +4369,7 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D37" s="37"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4426,8 +4384,8 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D38" s="35" t="s">
-        <v>186</v>
+      <c r="D38" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4453,7 +4411,7 @@
       </c>
     </row>
     <row r="39" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D39" s="37"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4462,10 +4420,10 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D40" s="37">
+      <c r="D40" s="30">
         <v>1.5</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="31">
         <v>-1.5166790000000001</v>
       </c>
       <c r="F40" s="3">
@@ -4485,10 +4443,10 @@
       </c>
     </row>
     <row r="41" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D41" s="37">
+      <c r="D41" s="30">
         <v>2.5</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="31">
         <v>-2.5277980000000002</v>
       </c>
       <c r="F41" s="3">
@@ -4508,10 +4466,10 @@
       </c>
     </row>
     <row r="42" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D42" s="36">
+      <c r="D42" s="29">
         <v>3.5</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="31">
         <v>-3.5389170000000001</v>
       </c>
       <c r="F42" s="3">
@@ -4531,10 +4489,10 @@
       </c>
     </row>
     <row r="43" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D43" s="36">
+      <c r="D43" s="29">
         <v>4.5</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="31">
         <v>-4.5500360000000004</v>
       </c>
       <c r="F43" s="3">
@@ -4554,10 +4512,10 @@
       </c>
     </row>
     <row r="44" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D44" s="36">
+      <c r="D44" s="29">
         <v>5.5</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="31">
         <v>-5.5611550000000003</v>
       </c>
       <c r="F44" s="3">
@@ -4577,10 +4535,10 @@
       </c>
     </row>
     <row r="45" spans="4:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="D45" s="36">
+      <c r="D45" s="29">
         <v>6.5</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="31">
         <v>-6.5722740000000002</v>
       </c>
       <c r="F45" s="3">
@@ -4600,40 +4558,40 @@
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="36"/>
+      <c r="E51" s="29"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="36"/>
+      <c r="E52" s="29"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="36"/>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="36"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E55" s="36"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="36"/>
+      <c r="E56" s="29"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="36"/>
+      <c r="E60" s="29"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E61" s="36"/>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="36"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E63" s="36"/>
+      <c r="E63" s="29"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="36"/>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="36"/>
+      <c r="E65" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4648,85 +4606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED31A83A-2A61-244E-B1F8-F46070DA3FBC}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291C86EE-5BF0-4046-9689-F584354080F1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4743,48 +4627,48 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>146</v>
+      <c r="A2" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B2">
         <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>147</v>
+      <c r="A3" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B3">
         <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>148</v>
+      <c r="A4" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B4">
         <v>0.77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>149</v>
+      <c r="A5" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C5">
         <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>150</v>
+      <c r="A6" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C6">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>151</v>
+      <c r="A7" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C7">
         <v>0.66</v>

--- a/code/main/model_output/apollo/0_battery_model_combine_output.xlsx
+++ b/code/main/model_output/apollo/0_battery_model_combine_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/apollo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF585C-81F0-1A4F-AA89-A99B4EB4F7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18331BF-304A-514C-BA6C-BC844B59566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3496,7 +3496,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
